--- a/biology/Zoologie/Dictyopharinae/Dictyopharinae.xlsx
+++ b/biology/Zoologie/Dictyopharinae/Dictyopharinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dictyopharinae sont une sous-famille d'insectes de l'ordre des hémiptères et de la famille des Dictyopharidae et de la super-famille des Fulgoroidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Dictyopharinae sont largement répandues dans la plupart des régions du monde[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Dictyopharinae sont largement répandues dans la plupart des régions du monde,. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres des Dictyopharinae peuvent être reconnus par leur tête variablement allongée antérieurement[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres des Dictyopharinae peuvent être reconnus par leur tête variablement allongée antérieurement,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de cette sous-famille se nourrissent principalement de monocotylédones. Quelques-uns sont des ravageurs agricoles majeurs des Poaceae (graminées), comme le riz, le maïs et la canne à sucre[4],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de cette sous-famille se nourrissent principalement de monocotylédones. Quelques-uns sont des ravageurs agricoles majeurs des Poaceae (graminées), comme le riz, le maïs et la canne à sucre,.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Dictyopharinae a été créée en 1839 par l'entomologiste italien spécialiste des hyménoptères Massimiliano Spinola (1780-1857)[3].
-Cette sous-famille contient plus de 125 genres[5] ; comme dans de nombreux autres groupes de Fulgoromorpha, un grand nombre de genres et de taxons supérieurs de cette sous-famille n'ont toujours pas fait l'objet d'études de révision standard et leur monophylie n'a jamais été testée cladistiquement[6],[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Dictyopharinae a été créée en 1839 par l'entomologiste italien spécialiste des hyménoptères Massimiliano Spinola (1780-1857).
+Cette sous-famille contient plus de 125 genres ; comme dans de nombreux autres groupes de Fulgoromorpha, un grand nombre de genres et de taxons supérieurs de cette sous-famille n'ont toujours pas fait l'objet d'études de révision standard et leur monophylie n'a jamais été testée cladistiquement,. 
 </t>
         </is>
       </c>
@@ -636,26 +656,28 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La sous-famille des Dictyopharinae contient plus de 550 espèces appartenant à plus de 121 genres[7]. Elle est divisée en treize tribus[8],[7] et deux tribus fossiles[2],[8],[7].
-Liste (probablement incomplète) des genres[7]:
-Tribu Aluntiini Emeljanov, 1979[1],[8]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Dictyopharinae contient plus de 550 espèces appartenant à plus de 121 genres. Elle est divisée en treize tribus, et deux tribus fossiles.
+Liste (probablement incomplète) des genres:
+Tribu Aluntiini Emeljanov, 1979,
 Genre Aluntia Stål, 1866  genre type
 Genre Dendrophora Melichar, 1903
 Genre Dictyomorpha Melichar, 1912
 Genre Indodictyophara Liang &amp; Song, 2012
 Genre Madagascaritia Song &amp; Liang, 2016
-Tribu Arjunini Song &amp; Szwedo, 2016[8]
+Tribu Arjunini Song &amp; Szwedo, 2016
 Genre Arjuna Muir, 1934  genre type
 Genre Pippax Emeljanov, 2008
-Tribu Capenini Emeljanov, 1969[1],[8]
+Tribu Capenini Emeljanov, 1969,
 Genre Capena Stål, 1866  genre type
 Genre Diasphax Fennah, 1962
 Genre Menenches Fennah, 1962
-Tribu Cleotychini Emeljanov, 1997[1],[8]
+Tribu Cleotychini Emeljanov, 1997,
 Genre Cleotyche Emeljanov, 1997  genre type
-Tribu Dictyopharini Spinola, 1839[1],[8]
+Tribu Dictyopharini Spinola, 1839,
 Genre Aethiocera Emeljanov, 2008
 Genre Afronersia Fennah, 1958
 Genre Aselgeia Walker, 1851
@@ -691,19 +713,19 @@
 Genre Tylacra Emeljanov, 2008
 Genre Zaputala Emeljanov, 2008
 Genre Zedochir Fennah, 1978
-Tribu Hastini Emeljanov, 1983[1],[8]
+Tribu Hastini Emeljanov, 1983,
 Genre Anasta Emeljanov, 2008
 Genre Articrius Emeljanov, 2008
 Genre Dorimargus Melichar, 1912
 Genre Eudictya Melichar, 1912
 Genre Hasta Melichar, 1912  genre type
 Genre Thanatodictya Kirkaldy, 1906
-Tribu Lappidini Emeljanov, 1983[1],[8]
+Tribu Lappidini Emeljanov, 1983,
 Genre Hydriena Melichar, 1912
 Genre Igava Melichar, 1912
 Genre Lappida Amyot &amp; Audinet-Serville, 1843  genre type
 Genre Toropa Melichar, 1912
-Tribu Nersiini Emeljanov, 1983[1],[8]
+Tribu Nersiini Emeljanov, 1983,
 Genre Coronersia Emeljanov, 2011
 Genre Crocodictya Emeljanov, 2008
 Genre Deltoplana Emeljanov, 2011
@@ -730,10 +752,10 @@
 Genre Trigava O'Brien, 1999
 Genre Trimedia Fennah, 1944
 Genre Xenochasma Emeljanov, 2011
-Tribu † Netutelini Emeljanov, 1983[9],[1],[8]
-Genre † Netutela Emeljanov, 1983[9]
-Tribu Orthopagini Emeljanov, 1983[1],[8]
-Genre † Alicodoxa Emeljanov &amp; Shcherbakov, 2011[10]
+Tribu † Netutelini Emeljanov, 1983
+Genre † Netutela Emeljanov, 1983
+Tribu Orthopagini Emeljanov, 1983,
+Genre † Alicodoxa Emeljanov &amp; Shcherbakov, 2011
 Genre † Bathymyza Emeljanov &amp; Shcherbakov, 2020
 Genre Centromeria Stål, 1870
 Genre Centromeriana Melichar, 1912
@@ -757,28 +779,63 @@
 Genre Saigona Matsumura, 1910
 Genre Tenguna Matsumura, 1910
 Genre Truncatomeria Song &amp; Liang, 2011
-Tribu Phylloscelini Emeljanov, 1983[8]
+Tribu Phylloscelini Emeljanov, 1983
 Genre Phylloscelis Germar, 1839  genre type
-Tribu Rancodini Emeljanov, 2014[8]
+Tribu Rancodini Emeljanov, 2014
 Genre Rancoda Emeljanov, 2014  genre type
-Tribu Scoloptini Emeljanov, 1983[1],[8]
+Tribu Scoloptini Emeljanov, 1983,
 Genre Scolops Schaum, 1850  genre type
-Tribu Taosini Emeljanov, 1983[1],[8]
+Tribu Taosini Emeljanov, 1983,
 Genre Brachytaosa Muir, 1931
 Genre Cuernavaca Kirkaldy, 1913
 Genre Netaosa Emeljanov, 2011
 Genre Phormotegus Emeljanov, 2010
 Genre Sicorisia Melichar, 1912
 Genre Taosa Distant, 1906  genre type
-Tribu † Worskaitini Szwedo, 2008[11],[1],[8]
-Genre † Worskaito Szwedo, 2008[11]
+Tribu † Worskaitini Szwedo, 2008
+Genre † Worskaito Szwedo, 2008
 Genres incertae sedis
 Genre Chondrodire Emeljanov, 2011 incertae sedis
 Genre Chondrophana Emeljanov, 2015 incertae sedis
 Genre Mahanorona Distant, 1909 incertae sedis
 Genre Viridophara Shakila, 1984 incertae sedis
-Publication originale
-Maximilien Spinola, « Essai sur les Fulgorelles, sous-tribu de la tribu des Cicadaires, ordre des Rhyngotes », Annales de la Société Entomologique de France, Paris, vol. 8,‎ 3 juillet 1839, p. 133-337 (ISSN 0037-9271, lire en ligne, consulté le 21 janvier 2023).</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dictyopharinae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dictyopharinae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Maximilien Spinola, « Essai sur les Fulgorelles, sous-tribu de la tribu des Cicadaires, ordre des Rhyngotes », Annales de la Société Entomologique de France, Paris, vol. 8,‎ 3 juillet 1839, p. 133-337 (ISSN 0037-9271, lire en ligne, consulté le 21 janvier 2023).</t>
         </is>
       </c>
     </row>
